--- a/Unity/Assets/Config/Excel/Datas/StartConfig/Release/StartSceneConfig.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/StartConfig/Release/StartSceneConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Workspace\ET\Unity\Assets\Config\Excel\Datas\StartConfig\Release\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\ETPlus\Unity\Assets\Config\Excel\Datas\StartConfig\Release\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C0027EA-4B6E-40E1-9446-A4988FB85F9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71C98BED-F819-45CB-9D95-7B2CB9F535A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3690" yWindow="2250" windowWidth="20775" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="StartSceneConfig" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="34">
   <si>
     <t>##var</t>
   </si>
@@ -121,6 +121,10 @@
   </si>
   <si>
     <t>##</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -534,27 +538,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.125" style="7" customWidth="1"/>
-    <col min="2" max="2" width="12.625" style="7" customWidth="1"/>
-    <col min="3" max="5" width="12.625" style="8" customWidth="1"/>
+    <col min="1" max="1" width="21.125" style="8" customWidth="1"/>
+    <col min="2" max="5" width="12.625" style="8" customWidth="1"/>
     <col min="6" max="6" width="15.375" style="8" customWidth="1"/>
     <col min="7" max="7" width="13.125" style="8" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="7"/>
+    <col min="8" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7" s="2" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
@@ -573,11 +576,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="3" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:7" s="4" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="4" t="s">
@@ -596,11 +599,11 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:7" s="2" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -659,7 +662,7 @@
         <v>30002</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B6" s="8">
         <v>3</v>
       </c>
@@ -732,6 +735,23 @@
         <v>23</v>
       </c>
       <c r="G9" s="5"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B10" s="8">
+        <v>7</v>
+      </c>
+      <c r="C10" s="8">
+        <v>1</v>
+      </c>
+      <c r="D10" s="8">
+        <v>1</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>33</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>

--- a/Unity/Assets/Config/Excel/Datas/StartConfig/Release/StartSceneConfig.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/StartConfig/Release/StartSceneConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\ETPlus\Unity\Assets\Config\Excel\Datas\StartConfig\Release\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71C98BED-F819-45CB-9D95-7B2CB9F535A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6321015C-C8B7-40C9-A3F7-0994D0988BCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3690" yWindow="2250" windowWidth="20775" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="35">
   <si>
     <t>##var</t>
   </si>
@@ -125,6 +125,10 @@
   </si>
   <si>
     <t>Name</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Queue</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -538,10 +542,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -751,6 +755,23 @@
       </c>
       <c r="F10" s="8" t="s">
         <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B11" s="8">
+        <v>8</v>
+      </c>
+      <c r="C11" s="8">
+        <v>1</v>
+      </c>
+      <c r="D11" s="8">
+        <v>1</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
